--- a/Planilhas/SESI_DR.xlsx
+++ b/Planilhas/SESI_DR.xlsx
@@ -164,7 +164,7 @@
     <t>Base Nacional</t>
   </si>
   <si>
-    <t>joelson.sousa@solarbr.com.br
+    <t>newrafaelcosta2000@gmail.com
  suyanne.sales@solarbr.com.br
  tatiana.vieira@solarbr.com.br</t>
   </si>
@@ -175,8 +175,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$R$ -416]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="000000000"/>
-    <numFmt numFmtId="167" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
+    <numFmt numFmtId="165" formatCode="000000000"/>
+    <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,7 +385,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,7 +409,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,10 +421,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,8 +734,8 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Planilhas/SESI_DR.xlsx
+++ b/Planilhas/SESI_DR.xlsx
@@ -28,8 +28,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="W4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>+cfpereira@sfiec.org.br , falta informar os emails de contato
+_Atribuído a Camila Paiva_
+	-GEFIN Faturamento SESI
+Qual?
+Em sex, 14 de jun de 2019 às 19:00, GEFIN Faturamento SESI (Planilhas
+	-Camila Paiva</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>CNPJ</t>
   </si>
@@ -164,9 +191,62 @@
     <t>Base Nacional</t>
   </si>
   <si>
-    <t>newrafaelcosta2000@gmail.com
- suyanne.sales@solarbr.com.br
- tatiana.vieira@solarbr.com.br</t>
+    <t>newrafaelcosta2000@gmail.com</t>
+  </si>
+  <si>
+    <t>002326</t>
+  </si>
+  <si>
+    <t>BN210</t>
+  </si>
+  <si>
+    <t>VICUNHA TEXTIL S/A.</t>
+  </si>
+  <si>
+    <t>07332190000860</t>
+  </si>
+  <si>
+    <t>Glicemia em Jejum
+ Hemograma Completo
+ N-metilformanida</t>
+  </si>
+  <si>
+    <t>GCO 01</t>
+  </si>
+  <si>
+    <t>002327</t>
+  </si>
+  <si>
+    <t>BN193/2019</t>
+  </si>
+  <si>
+    <t>FTL - FERROVIA TRANSNORDESTINA LOGISTICA S.A</t>
+  </si>
+  <si>
+    <t>17234244000131</t>
+  </si>
+  <si>
+    <t>Atestado de Saúde Ocupacional - ASO</t>
+  </si>
+  <si>
+    <t>002328</t>
+  </si>
+  <si>
+    <t>BN213</t>
+  </si>
+  <si>
+    <t>TRANSNORDESTINA LOGISTICA S.A</t>
+  </si>
+  <si>
+    <t>02281836000137</t>
+  </si>
+  <si>
+    <t>Glicemia em Jejum
+ Teste de Acuidade Visual (Censo Visual)
+ Hemograma Completo</t>
+  </si>
+  <si>
+    <t>Encaminhado para email do CRM</t>
   </si>
 </sst>
 </file>
@@ -178,7 +258,7 @@
     <numFmt numFmtId="165" formatCode="000000000"/>
     <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +317,30 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -320,10 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -427,8 +532,48 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,14 +873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="20" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
@@ -919,7 +1064,7 @@
       <c r="V2" s="32">
         <v>2365</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="37" t="s">
         <v>44</v>
       </c>
       <c r="X2" s="30"/>
@@ -955,68 +1100,244 @@
       <c r="AR2" s="19"/>
       <c r="AS2" s="19"/>
     </row>
-    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
+    <row r="3" spans="1:45" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="40">
+        <v>75</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="43">
+        <v>43623</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="48">
+        <v>43624</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="49">
+        <v>948</v>
+      </c>
+      <c r="AE3" s="46">
+        <v>1588</v>
+      </c>
+      <c r="AF3" s="48">
+        <v>43633</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+    </row>
+    <row r="4" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="40">
+        <v>3388.34</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="43">
+        <v>43627</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="48">
+        <v>43628</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="49">
+        <v>943</v>
+      </c>
+      <c r="AE4" s="46">
+        <v>1583</v>
+      </c>
+      <c r="AF4" s="48">
+        <v>43633</v>
+      </c>
+      <c r="AG4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+    </row>
+    <row r="5" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="40">
+        <v>27</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="43">
+        <v>43629</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="48">
+        <v>43641</v>
+      </c>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="49">
+        <v>958</v>
+      </c>
+      <c r="AE5" s="46">
+        <v>1606</v>
+      </c>
+      <c r="AF5" s="48">
+        <v>43641</v>
+      </c>
+      <c r="AG5" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
@@ -1334,7 +1655,11 @@
       <c r="AB20" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Planilhas/SESI_DR.xlsx
+++ b/Planilhas/SESI_DR.xlsx
@@ -51,12 +51,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="W8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>+cfpereira@sfiec.org.br , falta informar os emails de contato
+_Atribuído a Camila Paiva_
+	-GEFIN Faturamento SESI
+Qual?
+Em sex, 14 de jun de 2019 às 19:00, GEFIN Faturamento SESI (Planilhas
+	-Camila Paiva</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>CNPJ</t>
   </si>
@@ -246,7 +263,10 @@
  Hemograma Completo</t>
   </si>
   <si>
-    <t>Encaminhado para email do CRM</t>
+    <t>rfcosta@sfiec.org.br</t>
+  </si>
+  <si>
+    <t>rssales@sfiec.org.br</t>
   </si>
 </sst>
 </file>
@@ -428,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -569,6 +589,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1168,9 @@
         <v>43624</v>
       </c>
       <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
+      <c r="W3" s="50" t="s">
+        <v>61</v>
+      </c>
       <c r="X3" s="44"/>
       <c r="Y3" s="46"/>
       <c r="Z3" s="46"/>
@@ -1224,7 +1249,9 @@
         <v>43628</v>
       </c>
       <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
+      <c r="W4" s="50" t="s">
+        <v>44</v>
+      </c>
       <c r="X4" s="44"/>
       <c r="Y4" s="46"/>
       <c r="Z4" s="46"/>
@@ -1339,89 +1366,331 @@
       <c r="AR5" s="19"/>
       <c r="AS5" s="19"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+    <row r="6" spans="1:45" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="26">
+        <v>280</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="29">
+        <v>43661</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="35">
+        <v>43661</v>
+      </c>
+      <c r="V6" s="32">
+        <v>2365</v>
+      </c>
+      <c r="W6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="36">
+        <v>348</v>
+      </c>
+      <c r="AE6" s="32">
+        <v>1388</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>43661</v>
+      </c>
+      <c r="AG6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
+    <row r="7" spans="1:45" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="40">
+        <v>75</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="43">
+        <v>43623</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="48">
+        <v>43624</v>
+      </c>
+      <c r="V7" s="46"/>
+      <c r="W7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="49">
+        <v>933</v>
+      </c>
+      <c r="AE7" s="46">
+        <v>1533</v>
+      </c>
+      <c r="AF7" s="48">
+        <v>43633</v>
+      </c>
+      <c r="AG7" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
+    <row r="8" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="40">
+        <v>3388.34</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="43">
+        <v>43627</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="48">
+        <v>43628</v>
+      </c>
+      <c r="V8" s="46"/>
+      <c r="W8" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="49">
+        <v>358</v>
+      </c>
+      <c r="AE8" s="46">
+        <v>1636</v>
+      </c>
+      <c r="AF8" s="48">
+        <v>43633</v>
+      </c>
+      <c r="AG8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+    <row r="9" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="40">
+        <v>27</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="43">
+        <v>43629</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="48">
+        <v>43641</v>
+      </c>
+      <c r="V9" s="46"/>
+      <c r="W9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="49">
+        <v>963</v>
+      </c>
+      <c r="AE9" s="46">
+        <v>3624</v>
+      </c>
+      <c r="AF9" s="48">
+        <v>43641</v>
+      </c>
+      <c r="AG9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10"/>
@@ -1657,9 +1926,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="W3" r:id="rId2"/>
+    <hyperlink ref="W4" r:id="rId3"/>
+    <hyperlink ref="W6" r:id="rId4"/>
+    <hyperlink ref="W7" r:id="rId5"/>
+    <hyperlink ref="W8" r:id="rId6"/>
+    <hyperlink ref="W9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Planilhas/SESI_DR.xlsx
+++ b/Planilhas/SESI_DR.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>CNPJ</t>
   </si>
@@ -141,9 +141,6 @@
     <t>PEDIDO DE COMPRA</t>
   </si>
   <si>
-    <t>E-MAILS DE CONTATO</t>
-  </si>
-  <si>
     <t>PESSOA DE CONTATO</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>RPS (REC PROV. SERVIÇO)GER</t>
   </si>
   <si>
     <t>NOTA FISCAL</t>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>rssales@sfiec.org.br</t>
+  </si>
+  <si>
+    <t>RPS</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,76 +1001,76 @@
         <v>21</v>
       </c>
       <c r="W1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AF1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AG1" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="AH1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AI1" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="26">
         <v>280</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="29">
         <v>43661</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -1088,7 +1088,7 @@
         <v>2365</v>
       </c>
       <c r="W2" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X2" s="30"/>
       <c r="Y2" s="32"/>
@@ -1106,12 +1106,12 @@
         <v>43661</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH2" s="32"/>
       <c r="AI2" s="32"/>
       <c r="AJ2" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="19"/>
@@ -1125,35 +1125,35 @@
     </row>
     <row r="3" spans="1:45" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="40">
         <v>75</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="H3" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>49</v>
       </c>
       <c r="I3" s="43">
         <v>43623</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="V3" s="46"/>
       <c r="W3" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X3" s="44"/>
       <c r="Y3" s="46"/>
@@ -1187,12 +1187,12 @@
         <v>43633</v>
       </c>
       <c r="AG3" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="46"/>
       <c r="AI3" s="46"/>
       <c r="AJ3" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
@@ -1206,35 +1206,35 @@
     </row>
     <row r="4" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="40">
         <v>3388.34</v>
       </c>
       <c r="E4" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="H4" s="42" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="I4" s="43">
         <v>43627</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="V4" s="46"/>
       <c r="W4" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X4" s="44"/>
       <c r="Y4" s="46"/>
@@ -1268,12 +1268,12 @@
         <v>43633</v>
       </c>
       <c r="AG4" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH4" s="46"/>
       <c r="AI4" s="46"/>
       <c r="AJ4" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK4" s="19"/>
       <c r="AL4" s="19"/>
@@ -1287,35 +1287,35 @@
     </row>
     <row r="5" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="40">
         <v>27</v>
       </c>
       <c r="E5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="43">
         <v>43629</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X5" s="44"/>
       <c r="Y5" s="46"/>
@@ -1349,12 +1349,12 @@
         <v>43641</v>
       </c>
       <c r="AG5" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH5" s="46"/>
       <c r="AI5" s="46"/>
       <c r="AJ5" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK5" s="19"/>
       <c r="AL5" s="19"/>
@@ -1368,35 +1368,35 @@
     </row>
     <row r="6" spans="1:45" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="26">
         <v>280</v>
       </c>
       <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="H6" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="I6" s="29">
         <v>43661</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -1414,7 +1414,7 @@
         <v>2365</v>
       </c>
       <c r="W6" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="32"/>
@@ -1432,12 +1432,12 @@
         <v>43661</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
       <c r="AJ6" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
@@ -1451,35 +1451,35 @@
     </row>
     <row r="7" spans="1:45" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="40">
         <v>75</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="H7" s="42" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="43">
         <v>43623</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="V7" s="46"/>
       <c r="W7" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X7" s="44"/>
       <c r="Y7" s="46"/>
@@ -1513,12 +1513,12 @@
         <v>43633</v>
       </c>
       <c r="AG7" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH7" s="46"/>
       <c r="AI7" s="46"/>
       <c r="AJ7" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
@@ -1532,35 +1532,35 @@
     </row>
     <row r="8" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="40">
         <v>3388.34</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="H8" s="42" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="43">
         <v>43627</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="V8" s="46"/>
       <c r="W8" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X8" s="44"/>
       <c r="Y8" s="46"/>
@@ -1594,12 +1594,12 @@
         <v>43633</v>
       </c>
       <c r="AG8" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH8" s="46"/>
       <c r="AI8" s="46"/>
       <c r="AJ8" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK8" s="19"/>
       <c r="AL8" s="19"/>
@@ -1611,38 +1611,18 @@
       <c r="AR8" s="19"/>
       <c r="AS8" s="19"/>
     </row>
-    <row r="9" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>34</v>
-      </c>
+    <row r="9" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
       <c r="B9" s="39"/>
-      <c r="C9" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="40">
-        <v>27</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="43">
-        <v>43629</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>43</v>
-      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
       <c r="N9" s="45"/>
@@ -1652,36 +1632,22 @@
       <c r="R9" s="47"/>
       <c r="S9" s="46"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="48">
-        <v>43641</v>
-      </c>
+      <c r="U9" s="48"/>
       <c r="V9" s="46"/>
-      <c r="W9" s="50" t="s">
-        <v>62</v>
-      </c>
+      <c r="W9" s="50"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="46"/>
       <c r="Z9" s="46"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="49">
-        <v>963</v>
-      </c>
-      <c r="AE9" s="46">
-        <v>3624</v>
-      </c>
-      <c r="AF9" s="48">
-        <v>43641</v>
-      </c>
-      <c r="AG9" s="46" t="s">
-        <v>36</v>
-      </c>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="46"/>
       <c r="AH9" s="46"/>
       <c r="AI9" s="46"/>
-      <c r="AJ9" s="46" t="s">
-        <v>37</v>
-      </c>
+      <c r="AJ9" s="46"/>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
@@ -1931,10 +1897,9 @@
     <hyperlink ref="W6" r:id="rId4"/>
     <hyperlink ref="W7" r:id="rId5"/>
     <hyperlink ref="W8" r:id="rId6"/>
-    <hyperlink ref="W9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/Planilhas/SESI_DR.xlsx
+++ b/Planilhas/SESI_DR.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>CNPJ</t>
   </si>
@@ -902,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,38 +1530,18 @@
       <c r="AR7" s="19"/>
       <c r="AS7" s="19"/>
     </row>
-    <row r="8" spans="1:45" s="20" customFormat="1" ht="104" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="40">
-        <v>3388.34</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="43">
-        <v>43627</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>41</v>
-      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
       <c r="N8" s="45"/>
@@ -1571,36 +1551,22 @@
       <c r="R8" s="47"/>
       <c r="S8" s="46"/>
       <c r="T8" s="19"/>
-      <c r="U8" s="48">
-        <v>43628</v>
-      </c>
+      <c r="U8" s="48"/>
       <c r="V8" s="46"/>
-      <c r="W8" s="50" t="s">
-        <v>60</v>
-      </c>
+      <c r="W8" s="50"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="46"/>
       <c r="Z8" s="46"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="49">
-        <v>358</v>
-      </c>
-      <c r="AE8" s="46">
-        <v>1636</v>
-      </c>
-      <c r="AF8" s="48">
-        <v>43633</v>
-      </c>
-      <c r="AG8" s="46" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="46"/>
       <c r="AH8" s="46"/>
       <c r="AI8" s="46"/>
-      <c r="AJ8" s="46" t="s">
-        <v>35</v>
-      </c>
+      <c r="AJ8" s="46"/>
       <c r="AK8" s="19"/>
       <c r="AL8" s="19"/>
       <c r="AM8" s="19"/>
@@ -1896,10 +1862,9 @@
     <hyperlink ref="W4" r:id="rId3"/>
     <hyperlink ref="W6" r:id="rId4"/>
     <hyperlink ref="W7" r:id="rId5"/>
-    <hyperlink ref="W8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>